--- a/RoundingTest/results.xlsx
+++ b/RoundingTest/results.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="15">
   <si>
     <t>Math.round</t>
   </si>
@@ -51,13 +51,16 @@
     <t>Random</t>
   </si>
   <si>
-    <t>N/A</t>
-  </si>
-  <si>
     <t>Speed (ms)</t>
   </si>
   <si>
     <t>Error</t>
+  </si>
+  <si>
+    <t>Native</t>
+  </si>
+  <si>
+    <t>None</t>
   </si>
 </sst>
 </file>
@@ -65,7 +68,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.0E+00"/>
+    <numFmt numFmtId="164" formatCode="0.0E+00"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -109,7 +112,7 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -412,10 +415,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R9"/>
+  <dimension ref="A1:S9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,48 +427,56 @@
     <col min="2" max="2" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="9.7109375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
         <v>12</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>13</v>
-      </c>
-      <c r="K1">
+      <c r="L1">
         <v>0.1</v>
       </c>
-      <c r="M1">
+      <c r="N1">
         <v>0.01</v>
       </c>
-      <c r="O1">
+      <c r="P1">
         <v>1E-3</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>9</v>
       </c>
@@ -479,31 +490,37 @@
         <v>10</v>
       </c>
       <c r="F2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>9</v>
       </c>
-      <c r="K2" t="s">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L2" t="s">
         <v>1</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>2</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>1</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>2</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>1</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -514,41 +531,47 @@
         <v>50</v>
       </c>
       <c r="D3">
-        <v>155</v>
+        <v>15</v>
       </c>
       <c r="E3">
-        <v>355</v>
+        <v>50</v>
       </c>
       <c r="F3">
-        <v>360</v>
+        <v>105</v>
       </c>
       <c r="G3">
-        <v>155</v>
-      </c>
-      <c r="K3" s="2">
+        <v>320</v>
+      </c>
+      <c r="H3">
+        <v>110</v>
+      </c>
+      <c r="I3">
+        <v>330</v>
+      </c>
+      <c r="L3" s="2">
         <v>4.4399999999999998E-17</v>
       </c>
-      <c r="L3" s="1">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
+      <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
         <v>5.3299999999999998E-17</v>
       </c>
-      <c r="N3" s="1">
+      <c r="O3" s="1">
         <f>4/1000</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="O3" s="4">
+      <c r="P3" s="4">
         <v>5.5E-17</v>
       </c>
-      <c r="P3" s="1">
+      <c r="Q3" s="1">
         <f>12/10000</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="Q3" s="1"/>
       <c r="R3" s="1"/>
+      <c r="S3" s="1"/>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -559,209 +582,238 @@
         <v>50</v>
       </c>
       <c r="D4">
-        <v>145</v>
+        <v>15</v>
       </c>
       <c r="E4">
-        <v>355</v>
+        <v>50</v>
       </c>
       <c r="F4">
-        <v>355</v>
+        <v>100</v>
       </c>
       <c r="G4">
-        <v>150</v>
-      </c>
-      <c r="K4" s="2">
+        <v>320</v>
+      </c>
+      <c r="H4">
+        <v>100</v>
+      </c>
+      <c r="I4">
+        <v>320</v>
+      </c>
+      <c r="L4" s="2">
         <v>4.4399999999999998E-17</v>
       </c>
-      <c r="L4" s="1">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
+      <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
         <v>5.3299999999999998E-17</v>
       </c>
-      <c r="N4" s="1">
+      <c r="O4" s="1">
         <f>4/1000</f>
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="O4" s="4">
+      <c r="P4" s="4">
         <v>5.5E-17</v>
       </c>
-      <c r="P4" s="1">
+      <c r="Q4" s="1">
         <f>12/10000</f>
         <v>1.1999999999999999E-3</v>
       </c>
-      <c r="Q4" s="1"/>
+      <c r="R4" s="1"/>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>50</v>
+      </c>
+      <c r="C5">
+        <v>1020</v>
+      </c>
+      <c r="D5">
         <v>150</v>
       </c>
-      <c r="C5">
+      <c r="E5">
         <v>1230</v>
       </c>
-      <c r="D5">
+      <c r="F5">
         <v>55</v>
       </c>
-      <c r="E5">
+      <c r="G5">
         <v>1130</v>
       </c>
-      <c r="F5">
+      <c r="H5">
+        <v>155</v>
+      </c>
+      <c r="I5">
         <v>1235</v>
       </c>
-      <c r="G5">
-        <v>155</v>
-      </c>
-      <c r="K5" s="2">
+      <c r="L5" s="2">
         <v>4.4399999999999998E-17</v>
       </c>
-      <c r="L5" s="1">
+      <c r="M5" s="1">
         <f>4/100</f>
         <v>0.04</v>
       </c>
-      <c r="M5" s="3">
+      <c r="N5" s="3">
         <v>5.3299999999999998E-17</v>
       </c>
-      <c r="N5" s="1">
+      <c r="O5" s="1">
         <f>48/1000</f>
         <v>4.8000000000000001E-2</v>
       </c>
-      <c r="O5" s="4">
+      <c r="P5" s="4">
         <v>5.5E-17</v>
       </c>
-      <c r="P5" s="1">
+      <c r="Q5" s="1">
         <f>496/10000</f>
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="Q5" s="1"/>
+      <c r="R5" s="1"/>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <v>970</v>
+      </c>
+      <c r="D6">
         <v>300</v>
       </c>
-      <c r="C6">
+      <c r="E6">
         <v>1150</v>
       </c>
-      <c r="D6">
+      <c r="F6">
         <v>210</v>
       </c>
-      <c r="E6">
+      <c r="G6">
         <v>1045</v>
       </c>
-      <c r="F6">
+      <c r="H6">
+        <v>300</v>
+      </c>
+      <c r="I6">
         <v>1150</v>
       </c>
-      <c r="G6">
-        <v>300</v>
-      </c>
-      <c r="K6" s="2">
-        <v>0</v>
-      </c>
-      <c r="L6" s="1">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="1">
-        <v>0</v>
-      </c>
-      <c r="O6" s="4">
-        <v>0</v>
-      </c>
-      <c r="P6" s="1">
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="1">
+        <v>0</v>
+      </c>
+      <c r="P6" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7">
+        <v>650</v>
+      </c>
+      <c r="C7">
+        <v>1200</v>
+      </c>
+      <c r="D7">
         <v>720</v>
       </c>
-      <c r="C7">
+      <c r="E7">
         <v>1280</v>
       </c>
-      <c r="D7">
+      <c r="F7">
         <v>650</v>
       </c>
-      <c r="E7">
+      <c r="G7">
         <v>1200</v>
       </c>
-      <c r="F7">
+      <c r="H7">
+        <v>710</v>
+      </c>
+      <c r="I7">
         <v>1300</v>
       </c>
-      <c r="G7">
-        <v>710</v>
-      </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>4.4399999999999998E-17</v>
       </c>
-      <c r="L7" s="1">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
+      <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
         <v>5.3299999999999998E-17</v>
       </c>
-      <c r="N7" s="1">
-        <v>0</v>
-      </c>
-      <c r="O7" s="4">
+      <c r="O7" s="1">
+        <v>0</v>
+      </c>
+      <c r="P7" s="4">
         <v>5.5E-17</v>
       </c>
-      <c r="P7" s="1">
+      <c r="Q7" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
+      <c r="D8">
         <v>710</v>
       </c>
-      <c r="C8">
+      <c r="E8">
         <v>1280</v>
       </c>
-      <c r="D8" t="s">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s">
-        <v>11</v>
-      </c>
-      <c r="F8">
+      <c r="H8">
+        <v>710</v>
+      </c>
+      <c r="I8">
         <v>1290</v>
       </c>
-      <c r="G8">
-        <v>710</v>
-      </c>
-      <c r="K8" s="2">
+      <c r="L8" s="2">
         <v>4.4399999999999998E-17</v>
       </c>
-      <c r="L8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M8" s="3">
+      <c r="M8" s="1"/>
+      <c r="N8" s="3">
         <v>5.3299999999999998E-17</v>
       </c>
-      <c r="N8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O8" s="4">
+      <c r="O8" s="1"/>
+      <c r="P8" s="4">
         <v>5.5E-17</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>11</v>
-      </c>
+      <c r="Q8" s="1"/>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="O9" s="2"/>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>40</v>
+      </c>
+      <c r="L9" s="2">
+        <v>4.4399999999999998E-17</v>
+      </c>
+      <c r="N9" s="3">
+        <v>5.3299999999999998E-17</v>
+      </c>
+      <c r="P9" s="4">
+        <v>5.5E-17</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
